--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44213,6 +44213,43 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44250,6 +44250,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44287,6 +44287,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44324,6 +44324,41 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44359,6 +44359,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44394,6 +44394,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44429,6 +44429,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>11800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44464,6 +44464,41 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44499,6 +44499,41 @@
         <v>6300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44534,6 +44534,41 @@
         <v>4700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44569,6 +44569,41 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44604,6 +44604,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44641,6 +44641,76 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44711,6 +44711,76 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44781,6 +44781,41 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44816,6 +44816,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44851,6 +44851,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44888,6 +44888,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44923,6 +44923,78 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44995,6 +44995,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45030,6 +45030,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78455,6 +78455,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78492,6 +78492,43 @@
         </is>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78529,6 +78529,43 @@
         </is>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78566,6 +78566,41 @@
         </is>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78601,6 +78601,43 @@
         <v>600</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="I2200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78638,6 +78638,41 @@
         </is>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2201"/>
+  <dimension ref="A1:I2202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78673,6 +78673,43 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="I2202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2202"/>
+  <dimension ref="A1:I2203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78710,6 +78710,41 @@
         </is>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78745,6 +78745,43 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="I2204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78782,6 +78782,43 @@
         </is>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="I2205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78819,6 +78819,43 @@
         </is>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="I2206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78856,6 +78856,43 @@
         </is>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="I2207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78893,6 +78893,41 @@
         </is>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78928,6 +78928,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5032.xlsx
+++ b/data/5032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2209"/>
+  <dimension ref="A1:I2210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78963,6 +78963,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>5032</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>BIPORT</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I2210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
